--- a/data/data.obs.exp.altitude.xlsx
+++ b/data/data.obs.exp.altitude.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -41,16 +41,13 @@
     <t xml:space="preserve">1888</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400-599</t>
+    <t xml:space="preserve">&lt; 600</t>
   </si>
   <si>
     <t xml:space="preserve">600-999</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; 1000</t>
+    <t xml:space="preserve">&gt;= 1000</t>
   </si>
   <si>
     <t xml:space="preserve">1900</t>
@@ -419,13 +416,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="D2" t="n">
-        <v>71.3153027979741</v>
+        <v>337.999086283491</v>
       </c>
       <c r="E2" t="n">
-        <v>422070</v>
+        <v>2000402</v>
       </c>
       <c r="F2" t="n">
         <v>2917754</v>
@@ -434,7 +431,7 @@
         <v>493</v>
       </c>
       <c r="H2" t="n">
-        <v>14.4655786608467</v>
+        <v>68.5596523901604</v>
       </c>
     </row>
     <row r="3">
@@ -445,13 +442,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="D3" t="n">
-        <v>266.683783485517</v>
+        <v>129.859342151532</v>
       </c>
       <c r="E3" t="n">
-        <v>1578332</v>
+        <v>768555</v>
       </c>
       <c r="F3" t="n">
         <v>2917754</v>
@@ -460,7 +457,7 @@
         <v>493</v>
       </c>
       <c r="H3" t="n">
-        <v>54.0940737293137</v>
+        <v>26.3406373532519</v>
       </c>
     </row>
     <row r="4">
@@ -471,13 +468,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>129.859342151532</v>
+        <v>25.1415715649777</v>
       </c>
       <c r="E4" t="n">
-        <v>768555</v>
+        <v>148797</v>
       </c>
       <c r="F4" t="n">
         <v>2917754</v>
@@ -486,50 +483,50 @@
         <v>493</v>
       </c>
       <c r="H4" t="n">
-        <v>26.3406373532519</v>
+        <v>5.09971025658777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1415715649777</v>
+        <v>399.28245697483</v>
       </c>
       <c r="E5" t="n">
-        <v>148797</v>
+        <v>2351329</v>
       </c>
       <c r="F5" t="n">
-        <v>2917754</v>
+        <v>3315443</v>
       </c>
       <c r="G5" t="n">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="H5" t="n">
-        <v>5.09971025658777</v>
+        <v>70.9205074555648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D6" t="n">
-        <v>89.0385670934472</v>
+        <v>136.825361497694</v>
       </c>
       <c r="E6" t="n">
-        <v>524338</v>
+        <v>805749</v>
       </c>
       <c r="F6" t="n">
         <v>3315443</v>
@@ -538,24 +535,24 @@
         <v>563</v>
       </c>
       <c r="H6" t="n">
-        <v>15.8150207981256</v>
+        <v>24.3029061274768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>310.243889881382</v>
+        <v>26.8921815274761</v>
       </c>
       <c r="E7" t="n">
-        <v>1826991</v>
+        <v>158365</v>
       </c>
       <c r="F7" t="n">
         <v>3315443</v>
@@ -564,58 +561,6 @@
         <v>563</v>
       </c>
       <c r="H7" t="n">
-        <v>55.1054866574391</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>134</v>
-      </c>
-      <c r="D8" t="n">
-        <v>136.825361497694</v>
-      </c>
-      <c r="E8" t="n">
-        <v>805749</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3315443</v>
-      </c>
-      <c r="G8" t="n">
-        <v>563</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24.3029061274768</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>26.8921815274761</v>
-      </c>
-      <c r="E9" t="n">
-        <v>158365</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3315443</v>
-      </c>
-      <c r="G9" t="n">
-        <v>563</v>
-      </c>
-      <c r="H9" t="n">
         <v>4.77658641695846</v>
       </c>
     </row>
